--- a/Proyecto 1/prediccionesRegresionLogistica.xlsx
+++ b/Proyecto 1/prediccionesRegresionLogistica.xlsx
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -6557,7 +6557,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -9734,7 +9734,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
@@ -10034,7 +10034,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
@@ -10717,7 +10717,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
@@ -11017,7 +11017,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
@@ -12142,7 +12142,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
@@ -12917,7 +12917,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500">
@@ -13342,7 +13342,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517">
@@ -13867,7 +13867,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
@@ -14219,7 +14219,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
@@ -14344,7 +14344,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557">
@@ -14844,7 +14844,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
@@ -14894,7 +14894,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
@@ -15369,7 +15369,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598">
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682">
@@ -17894,7 +17894,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699">
@@ -19744,7 +19744,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773">
@@ -20369,7 +20369,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798">
@@ -20694,7 +20694,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811">
@@ -20844,7 +20844,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817">
@@ -20919,7 +20919,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820">
@@ -21094,7 +21094,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827">
@@ -22444,7 +22444,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881">
@@ -23369,7 +23369,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918">
@@ -24894,7 +24894,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979">
